--- a/Asset/Data/Excel/Localization.xlsx
+++ b/Asset/Data/Excel/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -69,16 +69,40 @@
     <t>言葉を選ぶ</t>
   </si>
   <si>
-    <t>flag</t>
-  </si>
-  <si>
-    <t>Chinese.png</t>
-  </si>
-  <si>
-    <t>English.png</t>
-  </si>
-  <si>
-    <t>Janpanese.png</t>
+    <t>[Font]</t>
+  </si>
+  <si>
+    <t>ivFlag</t>
+  </si>
+  <si>
+    <t>[FontAsset]</t>
+  </si>
+  <si>
+    <t>Lang/English/Sprite/English</t>
+  </si>
+  <si>
+    <t>Lang/Japanese/Sprite/Janpanese</t>
+  </si>
+  <si>
+    <t>Lang/Chinese/Sprite/Chinese</t>
+  </si>
+  <si>
+    <t>Lang/Chinese/Font/Chinese</t>
+  </si>
+  <si>
+    <t>Lang/Chinese/Font/zh SDF</t>
+  </si>
+  <si>
+    <t>Lang/English/Font/en SDF</t>
+  </si>
+  <si>
+    <t>Lang/Japanese/Font/ja SDF</t>
+  </si>
+  <si>
+    <t>Lang/Japanese/Font/Janpanese</t>
+  </si>
+  <si>
+    <t>Lang/English/Font/English</t>
   </si>
 </sst>
 </file>
@@ -464,19 +488,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" customWidth="1"/>
@@ -539,16 +563,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -556,33 +580,67 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Asset/Data/Excel/Localization.xlsx
+++ b/Asset/Data/Excel/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Lang/English/Sprite/English</t>
   </si>
   <si>
-    <t>Lang/Japanese/Sprite/Janpanese</t>
-  </si>
-  <si>
     <t>Lang/Chinese/Sprite/Chinese</t>
   </si>
   <si>
@@ -99,10 +96,40 @@
     <t>Lang/Japanese/Font/ja SDF</t>
   </si>
   <si>
-    <t>Lang/Japanese/Font/Janpanese</t>
-  </si>
-  <si>
     <t>Lang/English/Font/English</t>
+  </si>
+  <si>
+    <t>Lang/Japanese/Font/Japanese</t>
+  </si>
+  <si>
+    <t>Lang/Japanese/Sprite/Japanese</t>
+  </si>
+  <si>
+    <t>中文1</t>
+  </si>
+  <si>
+    <t>中文2</t>
+  </si>
+  <si>
+    <t>中文3</t>
+  </si>
+  <si>
+    <t>English1</t>
+  </si>
+  <si>
+    <t>English2</t>
+  </si>
+  <si>
+    <t>English3</t>
+  </si>
+  <si>
+    <t>日本語1</t>
+  </si>
+  <si>
+    <t>日本語2</t>
+  </si>
+  <si>
+    <t>日本語3</t>
   </si>
 </sst>
 </file>
@@ -488,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -566,10 +593,10 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -583,13 +610,13 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -634,13 +661,64 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Asset/Data/Excel/Localization.xlsx
+++ b/Asset/Data/Excel/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -103,33 +103,6 @@
   </si>
   <si>
     <t>Lang/Japanese/Sprite/Japanese</t>
-  </si>
-  <si>
-    <t>中文1</t>
-  </si>
-  <si>
-    <t>中文2</t>
-  </si>
-  <si>
-    <t>中文3</t>
-  </si>
-  <si>
-    <t>English1</t>
-  </si>
-  <si>
-    <t>English2</t>
-  </si>
-  <si>
-    <t>English3</t>
-  </si>
-  <si>
-    <t>日本語1</t>
-  </si>
-  <si>
-    <t>日本語2</t>
-  </si>
-  <si>
-    <t>日本語3</t>
   </si>
 </sst>
 </file>
@@ -518,7 +491,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -671,55 +644,25 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Asset/Data/Excel/Localization.xlsx
+++ b/Asset/Data/Excel/Localization.xlsx
@@ -84,9 +84,6 @@
     <t>Lang/Chinese/Sprite/Chinese</t>
   </si>
   <si>
-    <t>Lang/Chinese/Font/Chinese</t>
-  </si>
-  <si>
     <t>Lang/Chinese/Font/zh SDF</t>
   </si>
   <si>
@@ -96,13 +93,16 @@
     <t>Lang/Japanese/Font/ja SDF</t>
   </si>
   <si>
-    <t>Lang/English/Font/English</t>
-  </si>
-  <si>
-    <t>Lang/Japanese/Font/Japanese</t>
-  </si>
-  <si>
     <t>Lang/Japanese/Sprite/Japanese</t>
+  </si>
+  <si>
+    <t>Lang/Chinese/Font/zh</t>
+  </si>
+  <si>
+    <t>Lang/English/Font/en</t>
+  </si>
+  <si>
+    <t>Lang/Japanese/Font/ja</t>
   </si>
 </sst>
 </file>
@@ -488,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -566,13 +566,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -583,13 +583,13 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,29 +640,8 @@
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Asset/Data/Excel/Localization.xlsx
+++ b/Asset/Data/Excel/Localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -103,6 +103,36 @@
   </si>
   <si>
     <t>Lang/Japanese/Font/ja</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>引擎</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>框架</t>
+  </si>
+  <si>
+    <t>教程</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Engine</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
   </si>
 </sst>
 </file>
@@ -488,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -643,6 +673,91 @@
         <v>24</v>
       </c>
     </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
